--- a/create-data/create_reference_data/source/commodities/commodities_isle_of_man.xlsx
+++ b/create-data/create_reference_data/source/commodities/commodities_isle_of_man.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD5EBE-E30A-AB49-A5C0-FAF3CBB5075D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B679DE-2D1F-1846-9A9C-98F8B0267FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26420" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>82795</v>
       </c>
       <c r="E2" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -573,7 +573,7 @@
         <v>82798</v>
       </c>
       <c r="E3" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -590,7 +590,7 @@
         <v>82805</v>
       </c>
       <c r="E4" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>82809</v>
       </c>
       <c r="E5" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>82813</v>
       </c>
       <c r="E6" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>82817</v>
       </c>
       <c r="E7" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>82820</v>
       </c>
       <c r="E8" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>82824</v>
       </c>
       <c r="E9" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>82828</v>
       </c>
       <c r="E10" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>82842</v>
       </c>
       <c r="E11" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>82855</v>
       </c>
       <c r="E12" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>82882</v>
       </c>
       <c r="E13" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>84344</v>
       </c>
       <c r="E14" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>84345</v>
       </c>
       <c r="E15" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>84346</v>
       </c>
       <c r="E16" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>84347</v>
       </c>
       <c r="E17" s="12">
-        <v>43770</v>
+        <v>43862</v>
       </c>
     </row>
   </sheetData>
